--- a/stm32f407_forTempGetAndDTU_Send/stm32f407.xlsx
+++ b/stm32f407_forTempGetAndDTU_Send/stm32f407.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="684" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
   <si>
     <t>PE7</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,6 +362,10 @@
   </si>
   <si>
     <t>USATR3_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,7 +747,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -970,6 +974,9 @@
       <c r="C13" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="F13" s="4" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
